--- a/data/trans_dic/Q20C_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/Q20C_R2-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2829672642098218</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4437325570130821</v>
+        <v>0.4437325570130819</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2361322512470998</v>
@@ -697,7 +697,7 @@
         <v>0.35653421848936</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4471110098309286</v>
+        <v>0.4471110098309287</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1263615154806864</v>
+        <v>0.1312247926989532</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04873990497094802</v>
+        <v>0.0480533183267884</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1084946049410512</v>
+        <v>0.06679509876143139</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1879199347009187</v>
+        <v>0.1859719598025504</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07071681945195045</v>
+        <v>0.07056804179145976</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09679293384126757</v>
+        <v>0.0992894770942058</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2161046937210539</v>
+        <v>0.2014680783127956</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1794026115332631</v>
+        <v>0.1752752302314067</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1416505113912557</v>
+        <v>0.1394503981612641</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1030070968690269</v>
+        <v>0.1116024294598206</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2121011537818001</v>
+        <v>0.1960893779854232</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2546358797227928</v>
+        <v>0.255311371509612</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.732352230204166</v>
+        <v>0.8335625023697923</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4159616092469965</v>
+        <v>0.4212377644837252</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5712468254849973</v>
+        <v>0.5611842794328652</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7407916846488217</v>
+        <v>0.7127576355186871</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.543461013812839</v>
+        <v>0.5444009956594839</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3966743180260313</v>
+        <v>0.3921904085884764</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6912233174142431</v>
+        <v>0.6789416428446593</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.718423419147371</v>
+        <v>0.7336625670630129</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5142270276429138</v>
+        <v>0.5503817587912444</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3355629253427151</v>
+        <v>0.343020882492278</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5460019842424568</v>
+        <v>0.5143509849047853</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6498533338345857</v>
+        <v>0.6493457606286681</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08077924063018356</v>
+        <v>0.1241635228659144</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0753199723242247</v>
+        <v>0.07357582959236397</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05717476064568609</v>
+        <v>0.05563516578889271</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.162184583015946</v>
+        <v>0.1850865709971475</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04948096000372722</v>
+        <v>0.04904069286023052</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04387317121881756</v>
+        <v>0.04248310261225949</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1366761313355812</v>
+        <v>0.1338604203133306</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1470467019217369</v>
+        <v>0.1356563601787089</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1116677215672914</v>
+        <v>0.1127984740273076</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03928497357750944</v>
+        <v>0.04362560087232072</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6667091667638319</v>
+        <v>0.6742711924587473</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4368517108582475</v>
+        <v>0.4633447616390771</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5693413716108775</v>
+        <v>0.5606775015599197</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2622117119875688</v>
+        <v>0.2885392036530002</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5025957383704677</v>
+        <v>0.4475340477523184</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5832217535823594</v>
+        <v>0.5953524589519177</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4265871910792991</v>
+        <v>0.4218763001387987</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3271626569693588</v>
+        <v>0.3321321388315487</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4826499960234157</v>
+        <v>0.4541615989765602</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.470466010498422</v>
+        <v>0.4677436443543472</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4104478173748071</v>
+        <v>0.4201150749987232</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2447476900035604</v>
+        <v>0.2359954872217334</v>
       </c>
     </row>
     <row r="10">
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1183152765408487</v>
+        <v>0.09434731007877828</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06114474597559184</v>
+        <v>0.06192147371283854</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07479554479393315</v>
+        <v>0.07470322797090855</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1007,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06726540437338854</v>
+        <v>0.06750944173232921</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06437136340343451</v>
+        <v>0.0709979473546304</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08316860239819425</v>
+        <v>0.0863279570437895</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3624129168200654</v>
+        <v>0.3648428411997147</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3895411968805089</v>
+        <v>0.3899628229685409</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4050776725159824</v>
+        <v>0.3553965169070215</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6110278897085364</v>
+        <v>0.6113064617474773</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2403769437078338</v>
+        <v>0.2704571958946996</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4958540889892017</v>
+        <v>0.492269533991928</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6137203485133617</v>
+        <v>0.5770884809314452</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2583718169792825</v>
+        <v>0.288658636686472</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2109110488466044</v>
+        <v>0.2105135344100374</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3425002524914892</v>
+        <v>0.373390807085638</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.355509675353844</v>
+        <v>0.3787023977454897</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.373688976742344</v>
+        <v>0.3920205716220706</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.09565682748567468</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2240405961409988</v>
+        <v>0.2240405961409987</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1482021406769566</v>
@@ -1105,7 +1105,7 @@
         <v>0.07985784878871346</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2771460263141543</v>
+        <v>0.2771460263141544</v>
       </c>
     </row>
     <row r="14">
@@ -1119,11 +1119,11 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09000905903733573</v>
+        <v>0.08684540425809277</v>
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.1322954484777474</v>
+        <v>0.1252853206240182</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.08691533075207641</v>
+        <v>0.07671101965928172</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1110509652552363</v>
+        <v>0.1348160714097162</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1509567189948407</v>
+        <v>0.1451949849728821</v>
       </c>
     </row>
     <row r="15">
@@ -1156,36 +1156,36 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7368518502657641</v>
+        <v>1</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7080011804605895</v>
+        <v>0.7071483126604834</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.5704908657673829</v>
+        <v>0.5275354717070992</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.6236979096692865</v>
+        <v>0.621409798222875</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4754657807963261</v>
+        <v>0.4684117869120414</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4374575190796294</v>
+        <v>0.4736862713931079</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6470765873766815</v>
+        <v>0.6513934956663565</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5414566321662819</v>
+        <v>0.5326328466737468</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3670375613772357</v>
+        <v>0.378671120843069</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4221917354611506</v>
+        <v>0.4545911204757165</v>
       </c>
     </row>
     <row r="16">
@@ -1233,7 +1233,7 @@
         <v>0.2458221915853508</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2464667193278693</v>
+        <v>0.2464667193278692</v>
       </c>
     </row>
     <row r="17">
@@ -1244,40 +1244,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1351803355467813</v>
+        <v>0.1375458788888443</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1037011079521781</v>
+        <v>0.1024376226002854</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1232744568318166</v>
+        <v>0.107412816625795</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1863256537986536</v>
+        <v>0.1852817028672371</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07570953096137165</v>
+        <v>0.07976652072191204</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1800371759569567</v>
+        <v>0.1836559479770491</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1646700272429263</v>
+        <v>0.1601220683622272</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1156885512588528</v>
+        <v>0.1208003594908</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1280061840186482</v>
+        <v>0.1340433602545868</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1717911101721128</v>
+        <v>0.1729325614287226</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1643985847288514</v>
+        <v>0.1727826819295547</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1781280200792954</v>
+        <v>0.1791576359615424</v>
       </c>
     </row>
     <row r="18">
@@ -1288,40 +1288,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4236466516371003</v>
+        <v>0.4332447562475061</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2940577750469088</v>
+        <v>0.306398945988577</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3702656062692468</v>
+        <v>0.371453300657179</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4240293485132212</v>
+        <v>0.4247658522651627</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2902112438100496</v>
+        <v>0.2801823293564801</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3800768944500938</v>
+        <v>0.3878761890559846</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3979300091435926</v>
+        <v>0.3874785861161484</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3044375455541387</v>
+        <v>0.2996048337293743</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2954901666770189</v>
+        <v>0.3131694362466747</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3191112570429627</v>
+        <v>0.326690696293803</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3337949906921112</v>
+        <v>0.3438501050147566</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3288829132061506</v>
+        <v>0.3298966650058424</v>
       </c>
     </row>
     <row r="19">
@@ -1592,40 +1592,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>795</v>
+        <v>826</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1947</v>
+        <v>1199</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2648</v>
+        <v>2621</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2900</v>
+        <v>2975</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4044</v>
+        <v>3770</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1474</v>
+        <v>1440</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2664</v>
+        <v>2623</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>5398</v>
+        <v>5849</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>7776</v>
+        <v>7189</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>5681</v>
+        <v>5696</v>
       </c>
     </row>
     <row r="7">
@@ -1636,40 +1636,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4609</v>
+        <v>5246</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9337</v>
+        <v>9456</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>10253</v>
+        <v>10072</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10440</v>
+        <v>10045</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6801</v>
+        <v>6813</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>11885</v>
+        <v>11751</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12935</v>
+        <v>12705</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>5903</v>
+        <v>6029</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>9672</v>
+        <v>10352</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>17587</v>
+        <v>17977</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>20017</v>
+        <v>18857</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>14498</v>
+        <v>14487</v>
       </c>
     </row>
     <row r="8">
@@ -1772,40 +1772,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1035</v>
+        <v>1590</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1033</v>
+        <v>1009</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>990</v>
+        <v>963</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4195</v>
+        <v>4787</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>4116</v>
+        <v>4032</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>5755</v>
+        <v>5309</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3757</v>
+        <v>3795</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1199</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="11">
@@ -1816,40 +1816,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8539</v>
+        <v>8636</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5797</v>
+        <v>6149</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7809</v>
+        <v>7690</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>3937</v>
+        <v>4333</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>8700</v>
+        <v>7747</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>15086</v>
+        <v>15399</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8501</v>
+        <v>8408</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>5073</v>
+        <v>5150</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>14536</v>
+        <v>13678</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>18412</v>
+        <v>18305</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>13810</v>
+        <v>14135</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>7470</v>
+        <v>7203</v>
       </c>
     </row>
     <row r="12">
@@ -1961,16 +1961,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1843</v>
+        <v>1470</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1049</v>
+        <v>1063</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="J14" s="6" t="n">
         <v>0</v>
@@ -1979,13 +1979,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2059</v>
+        <v>2066</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1829</v>
+        <v>2017</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>2552</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="15">
@@ -1996,40 +1996,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3785</v>
+        <v>3811</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5239</v>
+        <v>5245</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6738</v>
+        <v>5911</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9517</v>
+        <v>9522</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3680</v>
+        <v>4140</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8509</v>
+        <v>8448</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7225</v>
+        <v>6794</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3904</v>
+        <v>4362</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5432</v>
+        <v>5421</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>10484</v>
+        <v>11429</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>10099</v>
+        <v>10757</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>11467</v>
+        <v>12030</v>
       </c>
     </row>
     <row r="16">
@@ -2135,11 +2135,11 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>956</v>
+        <v>922</v>
       </c>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>2211</v>
+        <v>2094</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
@@ -2149,19 +2149,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1014</v>
+        <v>895</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2087</v>
+        <v>2533</v>
       </c>
       <c r="M18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>4284</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="19">
@@ -2172,36 +2172,36 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2775</v>
+        <v>3766</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7516</v>
+        <v>7507</v>
       </c>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>9536</v>
+        <v>8818</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>5097</v>
+        <v>5079</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>4675</v>
+        <v>4606</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>5102</v>
+        <v>5524</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>3661</v>
+        <v>3685</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>10173</v>
+        <v>10008</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>4323</v>
+        <v>4460</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>11981</v>
+        <v>12901</v>
       </c>
     </row>
     <row r="20">
@@ -2304,40 +2304,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4503</v>
+        <v>4582</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6199</v>
+        <v>6124</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6194</v>
+        <v>5397</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>11441</v>
+        <v>11376</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3560</v>
+        <v>3751</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>14612</v>
+        <v>14906</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>9921</v>
+        <v>9647</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5842</v>
+        <v>6100</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>10284</v>
+        <v>10769</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>24213</v>
+        <v>24374</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>18165</v>
+        <v>19091</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>19932</v>
+        <v>20048</v>
       </c>
     </row>
     <row r="23">
@@ -2348,40 +2348,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14113</v>
+        <v>14432</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>17579</v>
+        <v>18317</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>18603</v>
+        <v>18663</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>26036</v>
+        <v>26081</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>13647</v>
+        <v>13175</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>30848</v>
+        <v>31481</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>23974</v>
+        <v>23345</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>15373</v>
+        <v>15129</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>23738</v>
+        <v>25159</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>44976</v>
+        <v>46045</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>36881</v>
+        <v>37992</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>36802</v>
+        <v>36915</v>
       </c>
     </row>
     <row r="24">
